--- a/vopros.xlsx
+++ b/vopros.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
   <si>
     <t>Содержание зданий и прилегающих территорий детских садов</t>
   </si>
@@ -418,12 +418,6 @@
 В случае проведения ОГЭ по иностранным языкам (задания по аудированию) допуск опоздавших участников в аудиторию во время прослушивания аудиозаписи не осуществляется (за исключением случаев, когда в аудитории нет других участников или когда участники в аудитории завершили прослушивание аудиозаписи).
 Персональное прослушивание соответствующей аудиозаписи для опоздавшего участника ГИА-9 не проводится (за исключением случаев, когда в аудитории нет других участников ГИА-9)
 </t>
-  </si>
-  <si>
-    <t>Нет, педагог не обязан осуществлять подготовку иных документов, не указанных в приказе Министерства просвещения Российской Федерации от 21.07.2022 №582.</t>
-  </si>
-  <si>
-    <t>Обязан ли педагог осуществлять подготовку иных документов (в том числе и вносить сведения в информационных системах), не указанных в приказе Министерства просвещения Российской Федерации от 21.07.2022 № 582 "Об утверждении перечня документации, подготовка которой осуществляется педагогическими работниками при реализации основных общеобразовательных программ"?</t>
   </si>
   <si>
     <t>Одновременное ведение (дублирование) журнала успеваемости в электронном и бумажном виде не допускается.</t>
@@ -1403,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1417,15 +1411,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="31.5" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -1433,10 +1427,10 @@
     </row>
     <row r="3" spans="1:2" ht="43.2">
       <c r="A3" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2">
@@ -1444,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="86.4">
@@ -1476,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8">
@@ -1505,7 +1499,7 @@
     </row>
     <row r="12" spans="1:2" ht="216">
       <c r="A12" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>14</v>
@@ -1516,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6">
@@ -1532,7 +1526,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.2">
@@ -1561,15 +1555,15 @@
     </row>
     <row r="19" spans="1:2" ht="100.8">
       <c r="A19" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.6">
       <c r="A20" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>93</v>
@@ -1577,10 +1571,10 @@
     </row>
     <row r="21" spans="1:2" ht="57.6">
       <c r="A21" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2">
@@ -1588,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="43.2">
@@ -1604,7 +1598,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8">
@@ -1620,12 +1614,12 @@
         <v>29</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="50.25" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>30</v>
@@ -1636,7 +1630,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8">
@@ -1657,7 +1651,7 @@
     </row>
     <row r="31" spans="1:2" ht="28.8">
       <c r="A31" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>36</v>
@@ -1676,7 +1670,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="52.8">
@@ -1697,7 +1691,7 @@
     </row>
     <row r="36" spans="1:2" ht="39.6">
       <c r="A36" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>42</v>
@@ -1705,7 +1699,7 @@
     </row>
     <row r="37" spans="1:2" ht="183.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>43</v>
@@ -1713,10 +1707,10 @@
     </row>
     <row r="38" spans="1:2" ht="409.5" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="22.8">
@@ -1729,10 +1723,10 @@
     </row>
     <row r="40" spans="1:2" ht="26.4">
       <c r="A40" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="43.2">
@@ -1748,20 +1742,20 @@
         <v>49</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="57.6">
       <c r="A43" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="216">
       <c r="A44" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>50</v>
@@ -1777,10 +1771,10 @@
     </row>
     <row r="46" spans="1:2" ht="100.8">
       <c r="A46" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="43.2">
@@ -1820,12 +1814,12 @@
         <v>60</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="129.6">
       <c r="A52" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>61</v>
@@ -1833,7 +1827,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>62</v>
@@ -1866,7 +1860,7 @@
     </row>
     <row r="56" spans="1:11" ht="57.6">
       <c r="A56" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>67</v>
@@ -1874,7 +1868,7 @@
     </row>
     <row r="57" spans="1:11" ht="57.6">
       <c r="A57" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>68</v>
@@ -1882,7 +1876,7 @@
     </row>
     <row r="58" spans="1:11" ht="86.4">
       <c r="A58" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>69</v>
@@ -1893,7 +1887,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="172.8">
@@ -1922,7 +1916,7 @@
     </row>
     <row r="63" spans="1:11" ht="28.8">
       <c r="A63" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>77</v>
@@ -1930,7 +1924,7 @@
     </row>
     <row r="64" spans="1:11" ht="43.2">
       <c r="A64" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>78</v>
@@ -1954,7 +1948,7 @@
     </row>
     <row r="67" spans="1:5" ht="26.4">
       <c r="A67" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>83</v>
@@ -1965,12 +1959,12 @@
         <v>91</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="58.5" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="97.2" customHeight="1">
       <c r="A69" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>92</v>
@@ -1999,7 +1993,7 @@
         <v>98</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="2"/>
@@ -2014,7 +2008,7 @@
     </row>
     <row r="74" spans="1:5" ht="153.75" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>101</v>
@@ -2022,7 +2016,7 @@
     </row>
     <row r="75" spans="1:5" ht="131.25" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>102</v>
@@ -2053,23 +2047,23 @@
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" ht="86.4">
+    <row r="79" spans="1:5">
       <c r="A79" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="57.6">
       <c r="A80" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="57.6">
+    <row r="81" spans="1:2" ht="43.2">
       <c r="A81" s="35" t="s">
         <v>113</v>
       </c>
@@ -2077,7 +2071,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.2">
+    <row r="82" spans="1:2" ht="28.8">
       <c r="A82" s="35" t="s">
         <v>115</v>
       </c>
@@ -2085,7 +2079,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="28.8">
+    <row r="83" spans="1:2" ht="115.2">
       <c r="A83" s="35" t="s">
         <v>117</v>
       </c>
@@ -2093,92 +2087,84 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="115.2">
-      <c r="A84" s="35" t="s">
+    <row r="84" spans="1:2" ht="28.8">
+      <c r="A84" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="28.8">
-      <c r="A85" s="36" t="s">
+    <row r="85" spans="1:2" ht="43.2">
+      <c r="A85" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="36" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="28.8">
+      <c r="A86" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="28.8">
+      <c r="A87" s="35" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="43.2">
-      <c r="A86" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="37" t="s">
+      <c r="B87" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="43.2">
+      <c r="A88" s="35" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="28.8">
-      <c r="A87" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="28.8">
-      <c r="A88" s="35" t="s">
+      <c r="B88" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="37" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="89" spans="1:2" ht="43.2">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B89" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="43.2">
-      <c r="A90" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="100.8">
-      <c r="A91" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="86.4">
+      <c r="B89" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="100.8">
+      <c r="A90" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="86.4">
+      <c r="A91" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="57.6">
       <c r="A92" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="57.6">
+    </row>
+    <row r="93" spans="1:2" ht="244.8">
       <c r="A93" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B93" s="41" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="244.8">
-      <c r="A94" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B94" s="45" t="s">
-        <v>186</v>
+        <v>153</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
